--- a/FieldData/2015/xlsx_analysis/09-013 Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/09-013 Field Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_B9EC82866305A0031E1A1899C056D391A145CC12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30FA0517-6B41-4F37-94E9-839353396DBF}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_B9EC82866305A0031E1A1899C056D391A145CC12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE6849A-ED8F-4E6E-9472-355CE440D9D2}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="945" windowWidth="20865" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marsh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="120">
   <si>
     <t>PLOT</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Scientific</t>
-  </si>
-  <si>
-    <t>Common</t>
   </si>
   <si>
     <t>N/E/I/T</t>
@@ -316,9 +313,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>red alder</t>
   </si>
   <si>
@@ -417,6 +411,12 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1366,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1442,9 +1442,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1478,6 +1475,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1502,7 +1502,10 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2957,77 +2960,75 @@
   <dimension ref="A1:IN116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G110" sqref="G110:G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.59765625" style="32" customWidth="1"/>
     <col min="3" max="3" width="8.69921875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="19.59765625" style="36" customWidth="1"/>
     <col min="5" max="5" width="18.8984375" style="32" customWidth="1"/>
-    <col min="6" max="6" width="8" style="39" customWidth="1"/>
+    <col min="6" max="6" width="8" style="38" customWidth="1"/>
     <col min="7" max="7" width="6.8984375" style="32" customWidth="1"/>
     <col min="8" max="248" width="8.59765625" style="32" customWidth="1"/>
     <col min="249" max="16384" width="8.59765625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="61" t="s">
+      <c r="H1" s="52" t="s">
         <v>117</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="25">
         <v>1</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>115</v>
+      <c r="D2" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="38">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="F2" s="37">
+        <v>20</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="25">
-        <v>153</v>
-      </c>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>9</v>
@@ -3035,14 +3036,14 @@
       <c r="C3" s="25">
         <v>1</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>53</v>
+      <c r="D3" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="38">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="F3" s="37">
+        <v>65</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>6</v>
@@ -3051,7 +3052,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>9</v>
@@ -3059,38 +3060,38 @@
       <c r="C4" s="25">
         <v>1</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>55</v>
+      <c r="D4" s="35" t="s">
+        <v>67</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="38">
-        <v>20</v>
+        <v>68</v>
+      </c>
+      <c r="F4" s="37">
+        <v>1</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>57</v>
+      <c r="D5" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="38">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="F5" s="37">
+        <v>55</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>6</v>
@@ -3099,1197 +3100,1209 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="25">
         <v>1</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>58</v>
+      <c r="D6" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="38">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="F6" s="37">
+        <v>25</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="25">
         <v>1</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>60</v>
+      <c r="D7" s="35" t="s">
+        <v>67</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="38">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.5</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" s="25">
         <v>1</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>61</v>
+      <c r="D8" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="38">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="F8" s="37">
+        <v>20</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="25">
         <v>1</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="35" t="s">
+        <v>54</v>
+      </c>
       <c r="E9" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="38">
-        <v>3</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F9" s="37">
+        <v>40</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" s="25">
         <v>1</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>64</v>
+      <c r="D10" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="38">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="F10" s="37">
+        <v>25</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="25">
-        <v>193</v>
-      </c>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="25">
         <v>1</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="38">
-        <v>65</v>
+      <c r="F11" s="37">
+        <v>20</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C12" s="25">
         <v>1</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>108</v>
+      <c r="D12" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="38">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="F12" s="37">
+        <v>40</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C13" s="25">
         <v>1</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>66</v>
+      <c r="D13" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="38">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="F13" s="37">
+        <v>20</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C14" s="25">
         <v>1</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>68</v>
+      <c r="D14" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="38">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="F14" s="37">
+        <v>40</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C15" s="25">
         <v>1</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="35" t="s">
+        <v>54</v>
+      </c>
       <c r="E15" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="38">
-        <v>3</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25"/>
+        <v>55</v>
+      </c>
+      <c r="F15" s="37">
+        <v>30</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C16" s="25">
         <v>1</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>115</v>
+      <c r="D16" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="38">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="F16" s="37">
+        <v>20</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="25">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C17" s="25">
         <v>1</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>64</v>
+      <c r="D17" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="38">
-        <v>5</v>
+        <v>55</v>
+      </c>
+      <c r="F17" s="37">
+        <v>15</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="25">
-        <v>169</v>
-      </c>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C18" s="25">
         <v>1</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>66</v>
+      <c r="D18" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="38">
-        <v>4</v>
+        <v>55</v>
+      </c>
+      <c r="F18" s="37">
+        <v>35</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="25"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>11</v>
-      </c>
       <c r="C19" s="25">
         <v>1</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>108</v>
+      <c r="D19" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="38">
-        <v>5</v>
+        <v>61</v>
+      </c>
+      <c r="F19" s="37">
+        <v>2</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="25">
         <v>1</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>55</v>
+      <c r="D20" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="38">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="F20" s="37">
+        <v>35</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="25"/>
+        <v>87</v>
+      </c>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="25">
         <v>1</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>57</v>
+      <c r="D21" s="35" t="s">
+        <v>78</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="38">
-        <v>15</v>
+        <v>79</v>
+      </c>
+      <c r="F21" s="37">
+        <v>1</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="26">
-        <v>99</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C22" s="25">
         <v>1</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>115</v>
+      <c r="D22" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="38">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="F22" s="37">
+        <v>40</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="26">
-        <v>169</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C23" s="25">
         <v>1</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>71</v>
+      <c r="D23" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="38">
-        <v>18</v>
+        <v>61</v>
+      </c>
+      <c r="F23" s="37">
+        <v>10</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C24" s="25">
         <v>1</v>
       </c>
-      <c r="D24" s="36" t="s">
-        <v>74</v>
+      <c r="D24" s="35" t="s">
+        <v>85</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="38">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="F24" s="37">
+        <v>25</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="H24" s="26"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C25" s="25">
         <v>1</v>
       </c>
-      <c r="D25" s="36" t="s">
-        <v>55</v>
+      <c r="D25" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="38">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="F25" s="37">
+        <v>88</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>12</v>
-      </c>
       <c r="C26" s="25">
         <v>1</v>
       </c>
-      <c r="D26" s="36" t="s">
-        <v>57</v>
+      <c r="D26" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="38">
-        <v>15</v>
+        <v>102</v>
+      </c>
+      <c r="F26" s="37">
+        <v>75</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="26">
-        <v>123</v>
+        <v>5</v>
+      </c>
+      <c r="H26" s="25">
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>12</v>
-      </c>
       <c r="C27" s="25">
         <v>1</v>
       </c>
-      <c r="D27" s="36" t="s">
-        <v>58</v>
+      <c r="D27" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="38">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="F27" s="37">
+        <v>10</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>12</v>
-      </c>
       <c r="C28" s="25">
         <v>1</v>
       </c>
-      <c r="D28" s="36" t="s">
-        <v>75</v>
+      <c r="D28" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="38">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="F28" s="37">
+        <v>3</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>13</v>
-      </c>
       <c r="C29" s="25">
         <v>1</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>115</v>
+      <c r="D29" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="38">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="F29" s="37">
+        <v>3</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="26">
-        <v>160</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>13</v>
-      </c>
       <c r="C30" s="25">
         <v>1</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>75</v>
+      <c r="D30" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="38">
-        <v>15</v>
+        <v>103</v>
+      </c>
+      <c r="F30" s="37">
+        <v>3</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="26">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31" s="25">
         <v>1</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>74</v>
+      <c r="D31" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="38">
-        <v>8</v>
+        <v>64</v>
+      </c>
+      <c r="F31" s="37">
+        <v>33</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H31" s="25">
+        <v>193</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C32" s="25">
         <v>1</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>61</v>
+      <c r="D32" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="38">
-        <v>35</v>
+        <v>66</v>
+      </c>
+      <c r="F32" s="37">
+        <v>3</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C33" s="25">
         <v>1</v>
       </c>
-      <c r="D33" s="36" t="s">
-        <v>78</v>
+      <c r="D33" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="38">
-        <v>0.5</v>
+        <v>102</v>
+      </c>
+      <c r="F33" s="37">
+        <v>70</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="26"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C34" s="25">
         <v>1</v>
       </c>
-      <c r="D34" s="36" t="s">
-        <v>79</v>
+      <c r="D34" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="38">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="F34" s="37">
+        <v>5</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H34" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H34" s="25">
+        <v>169</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C35" s="25">
         <v>1</v>
       </c>
-      <c r="D35" s="36" t="s">
-        <v>68</v>
+      <c r="D35" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="38">
-        <v>0.5</v>
+        <v>66</v>
+      </c>
+      <c r="F35" s="37">
+        <v>4</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" s="25">
         <v>1</v>
       </c>
-      <c r="D36" s="36" t="s">
-        <v>58</v>
+      <c r="D36" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="38">
+        <v>69</v>
+      </c>
+      <c r="F36" s="37">
+        <v>15</v>
+      </c>
+      <c r="G36" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="26"/>
+      <c r="H36" s="26">
+        <v>99</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37" s="25">
         <v>1</v>
       </c>
-      <c r="D37" s="36" t="s">
-        <v>55</v>
+      <c r="D37" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="38">
-        <v>20</v>
+        <v>102</v>
+      </c>
+      <c r="F37" s="37">
+        <v>82</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H37" s="26">
+        <v>169</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C38" s="25">
         <v>1</v>
       </c>
-      <c r="D38" s="36" t="s">
-        <v>57</v>
+      <c r="D38" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="38">
-        <v>15</v>
+        <v>71</v>
+      </c>
+      <c r="F38" s="37">
+        <v>18</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="26">
-        <v>122</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C39" s="25">
         <v>1</v>
       </c>
-      <c r="D39" s="36" t="s">
-        <v>115</v>
+      <c r="D39" s="35" t="s">
+        <v>73</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="38">
-        <v>40</v>
+        <v>72</v>
+      </c>
+      <c r="F39" s="37">
+        <v>2</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="26">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="26"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C40" s="25">
         <v>1</v>
       </c>
-      <c r="D40" s="36" t="s">
-        <v>64</v>
+      <c r="D40" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="38">
-        <v>9</v>
+        <v>69</v>
+      </c>
+      <c r="F40" s="37">
+        <v>15</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" s="26">
-        <v>193</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C41" s="25">
         <v>1</v>
       </c>
-      <c r="D41" s="36" t="s">
-        <v>66</v>
+      <c r="D41" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="38">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="F41" s="37">
+        <v>7</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" s="25">
         <v>1</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="37">
         <v>60</v>
       </c>
-      <c r="E42" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="38">
-        <v>2</v>
-      </c>
       <c r="G42" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H42" s="26">
+        <v>160</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="25">
+        <v>1</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="37">
         <v>8</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="25">
-        <v>1</v>
-      </c>
-      <c r="D43" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F43" s="38">
-        <v>4</v>
-      </c>
       <c r="G43" s="26" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C44" s="25">
         <v>1</v>
       </c>
-      <c r="D44" s="36" t="s">
-        <v>55</v>
+      <c r="D44" s="35" t="s">
+        <v>77</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="38">
-        <v>40</v>
+        <v>76</v>
+      </c>
+      <c r="F44" s="37">
+        <v>0.5</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C45" s="25">
         <v>1</v>
       </c>
-      <c r="D45" s="36" t="s">
-        <v>82</v>
+      <c r="D45" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" s="38">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="F45" s="37">
+        <v>5</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="H45" s="26"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C46" s="25">
         <v>1</v>
       </c>
-      <c r="D46" s="36"/>
+      <c r="D46" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="E46" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" s="38">
+        <v>69</v>
+      </c>
+      <c r="F46" s="37">
         <v>15</v>
       </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
+      <c r="G46" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="26">
+        <v>122</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C47" s="25">
         <v>1</v>
       </c>
-      <c r="D47" s="36" t="s">
-        <v>115</v>
+      <c r="D47" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="38">
-        <v>85</v>
+        <v>102</v>
+      </c>
+      <c r="F47" s="37">
+        <v>40</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H47" s="26">
+        <v>137</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C48" s="25">
         <v>1</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="38">
+      <c r="F48" s="37">
+        <v>9</v>
+      </c>
+      <c r="G48" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="26"/>
+      <c r="H48" s="26">
+        <v>193</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49" s="25">
         <v>1</v>
       </c>
-      <c r="D49" s="36" t="s">
-        <v>55</v>
+      <c r="D49" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="38">
-        <v>25</v>
+        <v>66</v>
+      </c>
+      <c r="F49" s="37">
+        <v>4</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C50" s="25">
         <v>1</v>
       </c>
-      <c r="D50" s="36" t="s">
-        <v>108</v>
+      <c r="D50" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="38">
-        <v>0.5</v>
+        <v>103</v>
+      </c>
+      <c r="F50" s="37">
+        <v>2</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C51" s="25">
         <v>1</v>
       </c>
-      <c r="D51" s="36" t="s">
-        <v>115</v>
+      <c r="D51" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F51" s="38">
-        <v>77</v>
+        <v>102</v>
+      </c>
+      <c r="F51" s="37">
+        <v>85</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="26">
-        <v>152</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52" s="25">
         <v>1</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" s="38">
-        <v>2</v>
+      <c r="F52" s="37">
+        <v>5</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="26">
-        <v>220</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="25">
         <v>1</v>
       </c>
-      <c r="D53" s="36" t="s">
-        <v>55</v>
+      <c r="D53" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="38">
-        <v>20</v>
+        <v>102</v>
+      </c>
+      <c r="F53" s="37">
+        <v>77</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" s="26"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H53" s="26">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="25">
         <v>1</v>
       </c>
-      <c r="D54" s="36" t="s">
-        <v>108</v>
+      <c r="D54" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="38">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="F54" s="37">
+        <v>2</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H54" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H54" s="26">
+        <v>220</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" s="26" t="s">
         <v>16</v>
@@ -4297,217 +4310,221 @@
       <c r="C55" s="25">
         <v>1</v>
       </c>
-      <c r="D55" s="36"/>
+      <c r="D55" s="35" t="s">
+        <v>113</v>
+      </c>
       <c r="E55" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="37">
+        <v>53</v>
+      </c>
+      <c r="G55" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="25">
+        <v>1</v>
+      </c>
+      <c r="D56" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F55" s="38">
+      <c r="E56" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="37">
         <v>3</v>
       </c>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="25">
-        <v>1</v>
-      </c>
-      <c r="D56" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F56" s="38">
-        <v>53</v>
-      </c>
       <c r="G56" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="25">
         <v>1</v>
       </c>
-      <c r="D57" s="36" t="s">
-        <v>64</v>
+      <c r="D57" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F57" s="38">
-        <v>3</v>
-      </c>
-      <c r="G57" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="26" t="s">
-        <v>19</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F57" s="37">
+        <v>23</v>
+      </c>
+      <c r="G57" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="26"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="25">
         <v>1</v>
       </c>
-      <c r="D58" s="36" t="s">
-        <v>83</v>
+      <c r="D58" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58" s="38">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="F58" s="37">
+        <v>5</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" s="25">
         <v>1</v>
       </c>
-      <c r="D59" s="36" t="s">
-        <v>108</v>
+      <c r="D59" s="35" t="s">
+        <v>73</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F59" s="38">
-        <v>3</v>
+        <v>72</v>
+      </c>
+      <c r="F59" s="37">
+        <v>1</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="H59" s="26"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C60" s="25">
         <v>1</v>
       </c>
-      <c r="D60" s="36" t="s">
-        <v>55</v>
+      <c r="D60" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="38">
-        <v>40</v>
+        <v>102</v>
+      </c>
+      <c r="F60" s="37">
+        <v>85</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H60" s="26">
+        <v>166</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C61" s="25">
         <v>1</v>
       </c>
-      <c r="D61" s="36" t="s">
-        <v>71</v>
+      <c r="D61" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F61" s="38">
+        <v>83</v>
+      </c>
+      <c r="F61" s="37">
+        <v>20</v>
+      </c>
+      <c r="G61" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="26" t="s">
-        <v>6</v>
-      </c>
       <c r="H61" s="26"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C62" s="25">
         <v>1</v>
       </c>
-      <c r="D62" s="36" t="s">
-        <v>74</v>
+      <c r="D62" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F62" s="38">
+        <v>108</v>
+      </c>
+      <c r="F62" s="37">
         <v>1</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H62" s="26"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C63" s="25">
         <v>1</v>
       </c>
-      <c r="D63" s="36" t="s">
-        <v>115</v>
+      <c r="D63" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F63" s="38">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="F63" s="37">
+        <v>0.5</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" s="26">
-        <v>166</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H63" s="26"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" s="26" t="s">
         <v>20</v>
@@ -4515,23 +4532,25 @@
       <c r="C64" s="25">
         <v>1</v>
       </c>
-      <c r="D64" s="36" t="s">
-        <v>83</v>
+      <c r="D64" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F64" s="38">
-        <v>20</v>
+        <v>102</v>
+      </c>
+      <c r="F64" s="37">
+        <v>47</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H64" s="26">
+        <v>135</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" s="26" t="s">
         <v>20</v>
@@ -4539,23 +4558,23 @@
       <c r="C65" s="25">
         <v>1</v>
       </c>
-      <c r="D65" s="36" t="s">
-        <v>55</v>
+      <c r="D65" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F65" s="38">
-        <v>20</v>
+        <v>53</v>
+      </c>
+      <c r="F65" s="37">
+        <v>15</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" s="26" t="s">
         <v>20</v>
@@ -4563,23 +4582,23 @@
       <c r="C66" s="25">
         <v>1</v>
       </c>
-      <c r="D66" s="36" t="s">
-        <v>108</v>
+      <c r="D66" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F66" s="38">
-        <v>7</v>
+        <v>103</v>
+      </c>
+      <c r="F66" s="37">
+        <v>0.5</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="H66" s="26"/>
     </row>
-    <row r="67" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" s="26" t="s">
         <v>20</v>
@@ -4587,23 +4606,23 @@
       <c r="C67" s="25">
         <v>1</v>
       </c>
-      <c r="D67" s="36" t="s">
-        <v>85</v>
+      <c r="D67" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F67" s="38">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F67" s="37">
+        <v>0.5</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" s="26" t="s">
         <v>20</v>
@@ -4611,23 +4630,23 @@
       <c r="C68" s="25">
         <v>1</v>
       </c>
-      <c r="D68" s="36" t="s">
-        <v>58</v>
+      <c r="D68" s="35" t="s">
+        <v>73</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F68" s="38">
-        <v>0.5</v>
+        <v>72</v>
+      </c>
+      <c r="F68" s="37">
+        <v>1</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" s="26" t="s">
         <v>21</v>
@@ -4635,25 +4654,25 @@
       <c r="C69" s="25">
         <v>1</v>
       </c>
-      <c r="D69" s="36" t="s">
-        <v>115</v>
+      <c r="D69" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F69" s="38">
-        <v>47</v>
+        <v>102</v>
+      </c>
+      <c r="F69" s="37">
+        <v>30</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H69" s="26">
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70" s="26" t="s">
         <v>21</v>
@@ -4661,23 +4680,25 @@
       <c r="C70" s="25">
         <v>1</v>
       </c>
-      <c r="D70" s="36" t="s">
-        <v>53</v>
+      <c r="D70" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F70" s="38">
-        <v>15</v>
+        <v>64</v>
+      </c>
+      <c r="F70" s="37">
+        <v>5</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H70" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H70" s="26">
+        <v>193</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" s="26" t="s">
         <v>21</v>
@@ -4685,23 +4706,23 @@
       <c r="C71" s="25">
         <v>1</v>
       </c>
-      <c r="D71" s="36" t="s">
-        <v>55</v>
+      <c r="D71" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F71" s="38">
-        <v>40</v>
+        <v>83</v>
+      </c>
+      <c r="F71" s="37">
+        <v>25</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H71" s="26"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72" s="26" t="s">
         <v>21</v>
@@ -4709,23 +4730,23 @@
       <c r="C72" s="25">
         <v>1</v>
       </c>
-      <c r="D72" s="36" t="s">
-        <v>108</v>
+      <c r="D72" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F72" s="38">
-        <v>3</v>
+        <v>103</v>
+      </c>
+      <c r="F72" s="37">
+        <v>1</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="H72" s="26"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" s="26" t="s">
         <v>21</v>
@@ -4733,71 +4754,73 @@
       <c r="C73" s="25">
         <v>1</v>
       </c>
-      <c r="D73" s="36" t="s">
-        <v>60</v>
+      <c r="D73" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F73" s="38">
-        <v>0.5</v>
+        <v>66</v>
+      </c>
+      <c r="F73" s="37">
+        <v>3</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H73" s="26"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C74" s="25">
         <v>1</v>
       </c>
-      <c r="D74" s="36" t="s">
-        <v>58</v>
+      <c r="D74" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F74" s="38">
-        <v>0.5</v>
+        <v>102</v>
+      </c>
+      <c r="F74" s="37">
+        <v>20</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H74" s="26">
+        <v>143</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C75" s="25">
         <v>1</v>
       </c>
-      <c r="D75" s="36" t="s">
-        <v>74</v>
+      <c r="D75" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F75" s="38">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="F75" s="37">
+        <v>3</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H75" s="26"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>22</v>
@@ -4805,25 +4828,23 @@
       <c r="C76" s="25">
         <v>1</v>
       </c>
-      <c r="D76" s="36" t="s">
-        <v>115</v>
+      <c r="D76" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F76" s="38">
-        <v>30</v>
+        <v>83</v>
+      </c>
+      <c r="F76" s="37">
+        <v>20</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H76" s="26">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H76" s="26"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" s="26" t="s">
         <v>22</v>
@@ -4831,25 +4852,23 @@
       <c r="C77" s="25">
         <v>1</v>
       </c>
-      <c r="D77" s="36" t="s">
-        <v>64</v>
+      <c r="D77" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F77" s="38">
+        <v>66</v>
+      </c>
+      <c r="F77" s="37">
+        <v>10</v>
+      </c>
+      <c r="G77" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G77" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H77" s="26">
-        <v>193</v>
-      </c>
+      <c r="H77" s="26"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="26" t="s">
         <v>22</v>
@@ -4857,23 +4876,23 @@
       <c r="C78" s="25">
         <v>1</v>
       </c>
-      <c r="D78" s="36" t="s">
-        <v>83</v>
+      <c r="D78" s="35" t="s">
+        <v>73</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F78" s="38">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="F78" s="37">
+        <v>1</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H78" s="26"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" s="26" t="s">
         <v>22</v>
@@ -4881,115 +4900,121 @@
       <c r="C79" s="25">
         <v>1</v>
       </c>
-      <c r="D79" s="36" t="s">
-        <v>108</v>
+      <c r="D79" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F79" s="38">
+        <v>64</v>
+      </c>
+      <c r="F79" s="37">
+        <v>2</v>
+      </c>
+      <c r="G79" s="26" t="s">
         <v>5</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>109</v>
       </c>
       <c r="H79" s="26"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C80" s="25">
         <v>1</v>
       </c>
-      <c r="D80" s="36" t="s">
-        <v>60</v>
+      <c r="D80" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F80" s="38">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="F80" s="37">
+        <v>5</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H80" s="26"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H80" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A81" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C81" s="25">
         <v>1</v>
       </c>
-      <c r="D81" s="36" t="s">
-        <v>55</v>
+      <c r="D81" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F81" s="38">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="F81" s="37">
+        <v>1</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H81" s="26"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C82" s="25">
         <v>1</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E82" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F82" s="38">
-        <v>3</v>
+      <c r="F82" s="37">
+        <v>6</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C83" s="25">
         <v>1</v>
       </c>
-      <c r="D83" s="36"/>
+      <c r="D83" s="35" t="s">
+        <v>73</v>
+      </c>
       <c r="E83" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F83" s="38">
-        <v>13</v>
-      </c>
-      <c r="G83" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="F83" s="37">
+        <v>1</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>5</v>
+      </c>
       <c r="H83" s="26"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" s="26" t="s">
         <v>23</v>
@@ -4997,25 +5022,23 @@
       <c r="C84" s="25">
         <v>1</v>
       </c>
-      <c r="D84" s="36" t="s">
-        <v>115</v>
+      <c r="D84" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F84" s="38">
-        <v>20</v>
+        <v>69</v>
+      </c>
+      <c r="F84" s="37">
+        <v>3</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H84" s="26">
-        <v>143</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H84" s="26"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B85" s="26" t="s">
         <v>23</v>
@@ -5023,23 +5046,23 @@
       <c r="C85" s="25">
         <v>1</v>
       </c>
-      <c r="D85" s="36" t="s">
-        <v>71</v>
+      <c r="D85" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F85" s="38">
-        <v>3</v>
+        <v>58</v>
+      </c>
+      <c r="F85" s="37">
+        <v>0.5</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H85" s="26"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>23</v>
@@ -5047,739 +5070,736 @@
       <c r="C86" s="25">
         <v>1</v>
       </c>
-      <c r="D86" s="36" t="s">
-        <v>61</v>
+      <c r="D86" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F86" s="38">
-        <v>40</v>
+        <v>83</v>
+      </c>
+      <c r="F86" s="37">
+        <v>55</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="H86" s="26"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C87" s="25">
         <v>1</v>
       </c>
-      <c r="D87" s="36" t="s">
-        <v>83</v>
+      <c r="D87" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F87" s="38">
-        <v>20</v>
+        <v>69</v>
+      </c>
+      <c r="F87" s="37">
+        <v>25</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H87" s="26"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C88" s="25">
         <v>1</v>
       </c>
-      <c r="D88" s="36" t="s">
-        <v>66</v>
+      <c r="D88" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F88" s="38">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="F88" s="37">
+        <v>15</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H88" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H88" s="26">
+        <v>94</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C89" s="25">
         <v>1</v>
       </c>
-      <c r="D89" s="36" t="s">
-        <v>55</v>
+      <c r="D89" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F89" s="38">
-        <v>20</v>
+        <v>66</v>
+      </c>
+      <c r="F89" s="37">
+        <v>11</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H89" s="26"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C90" s="25">
         <v>1</v>
       </c>
-      <c r="D90" s="36" t="s">
-        <v>74</v>
+      <c r="D90" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F90" s="38">
+        <v>102</v>
+      </c>
+      <c r="F90" s="37">
         <v>1</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H90" s="26"/>
     </row>
-    <row r="91" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C91" s="25">
         <v>1</v>
       </c>
-      <c r="D91" s="36" t="s">
-        <v>64</v>
+      <c r="D91" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F91" s="38">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="F91" s="37">
+        <v>5</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C92" s="25">
         <v>1</v>
       </c>
-      <c r="D92" s="36" t="s">
-        <v>115</v>
+      <c r="D92" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F92" s="38">
+        <v>83</v>
+      </c>
+      <c r="F92" s="37">
+        <v>6</v>
+      </c>
+      <c r="G92" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H92" s="26">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H92" s="26"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C93" s="25">
         <v>1</v>
       </c>
-      <c r="D93" s="36" t="s">
-        <v>64</v>
+      <c r="D93" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F93" s="38">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="F93" s="37">
+        <v>5</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H93" s="26"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C94" s="25">
         <v>1</v>
       </c>
-      <c r="D94" s="36" t="s">
-        <v>108</v>
+      <c r="D94" s="35" t="s">
+        <v>73</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F94" s="38">
-        <v>8</v>
+        <v>72</v>
+      </c>
+      <c r="F94" s="37">
+        <v>1</v>
       </c>
       <c r="G94" s="26" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="H94" s="26"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C95" s="25">
         <v>1</v>
       </c>
-      <c r="D95" s="36" t="s">
-        <v>66</v>
+      <c r="D95" s="35" t="s">
+        <v>74</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F95" s="38">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="F95" s="37">
+        <v>2</v>
       </c>
       <c r="G95" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H95" s="26"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C96" s="25">
         <v>1</v>
       </c>
-      <c r="D96" s="36" t="s">
-        <v>55</v>
+      <c r="D96" s="35" t="s">
+        <v>74</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F96" s="38">
+        <v>75</v>
+      </c>
+      <c r="F96" s="37">
         <v>15</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="H96" s="26">
+        <v>122</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C97" s="25">
         <v>1</v>
       </c>
-      <c r="D97" s="36" t="s">
-        <v>74</v>
+      <c r="D97" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F97" s="38">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="F97" s="37">
+        <v>2</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C98" s="25">
         <v>1</v>
       </c>
-      <c r="D98" s="36" t="s">
-        <v>57</v>
+      <c r="D98" s="35" t="s">
+        <v>74</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F98" s="38">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="F98" s="37">
+        <v>2</v>
       </c>
       <c r="G98" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="25">
+        <v>1</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" s="37">
         <v>8</v>
       </c>
-      <c r="B99" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" s="25">
-        <v>1</v>
-      </c>
-      <c r="D99" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E99" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F99" s="38">
-        <v>0.5</v>
-      </c>
       <c r="G99" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H99" s="26"/>
+        <v>107</v>
+      </c>
+      <c r="H99" s="25"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C100" s="25">
         <v>1</v>
       </c>
-      <c r="D100" s="36" t="s">
-        <v>83</v>
+      <c r="D100" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F100" s="38">
-        <v>55</v>
+        <v>104</v>
+      </c>
+      <c r="F100" s="37">
+        <v>5</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H100" s="26"/>
+        <v>107</v>
+      </c>
+      <c r="H100" s="25"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C101" s="25">
         <v>1</v>
       </c>
-      <c r="D101" s="36"/>
+      <c r="D101" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="E101" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F101" s="38">
-        <v>5</v>
-      </c>
-      <c r="G101" s="26"/>
+        <v>104</v>
+      </c>
+      <c r="F101" s="37">
+        <v>4</v>
+      </c>
+      <c r="G101" s="26" t="s">
+        <v>107</v>
+      </c>
       <c r="H101" s="26"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C102" s="25">
         <v>1</v>
       </c>
-      <c r="D102" s="36" t="s">
-        <v>57</v>
+      <c r="D102" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F102" s="38">
-        <v>25</v>
+        <v>104</v>
+      </c>
+      <c r="F102" s="37">
+        <v>0.5</v>
       </c>
       <c r="G102" s="26" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="H102" s="26"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C103" s="25">
         <v>1</v>
       </c>
-      <c r="D103" s="36" t="s">
-        <v>83</v>
+      <c r="D103" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F103" s="38">
-        <v>15</v>
+        <v>104</v>
+      </c>
+      <c r="F103" s="37">
+        <v>3</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H103" s="26">
-        <v>94</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H103" s="26"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C104" s="25">
         <v>1</v>
       </c>
-      <c r="D104" s="36" t="s">
-        <v>61</v>
+      <c r="D104" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F104" s="38">
-        <v>10</v>
+        <v>104</v>
+      </c>
+      <c r="F104" s="37">
+        <v>3</v>
       </c>
       <c r="G104" s="26" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H104" s="26"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C105" s="25">
         <v>1</v>
       </c>
-      <c r="D105" s="36" t="s">
-        <v>86</v>
+      <c r="D105" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F105" s="38">
-        <v>25</v>
+        <v>104</v>
+      </c>
+      <c r="F105" s="37">
+        <v>7</v>
       </c>
       <c r="G105" s="26" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H105" s="26"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C106" s="25">
         <v>1</v>
       </c>
-      <c r="D106" s="36" t="s">
-        <v>66</v>
+      <c r="D106" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F106" s="38">
-        <v>11</v>
+        <v>104</v>
+      </c>
+      <c r="F106" s="37">
+        <v>3</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="H106" s="26"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C107" s="25">
         <v>1</v>
       </c>
-      <c r="D107" s="36" t="s">
-        <v>55</v>
+      <c r="D107" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F107" s="38">
-        <v>35</v>
+        <v>104</v>
+      </c>
+      <c r="F107" s="37">
+        <v>5</v>
       </c>
       <c r="G107" s="26" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="H107" s="26"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C108" s="25">
         <v>1</v>
       </c>
-      <c r="D108" s="36" t="s">
-        <v>115</v>
+      <c r="D108" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="E108" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F108" s="38">
-        <v>1</v>
+      <c r="F108" s="37">
+        <v>8</v>
       </c>
       <c r="G108" s="26" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="H108" s="26"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C109" s="25">
         <v>1</v>
       </c>
-      <c r="D109" s="36" t="s">
+      <c r="D109" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F109" s="37">
+        <v>2</v>
+      </c>
+      <c r="G109" s="26" t="s">
         <v>107</v>
-      </c>
-      <c r="E109" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F109" s="38">
-        <v>2</v>
-      </c>
-      <c r="G109" s="26" t="s">
-        <v>109</v>
       </c>
       <c r="H109" s="26"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B110" s="26" t="s">
-        <v>26</v>
-      </c>
       <c r="C110" s="25">
         <v>1</v>
       </c>
-      <c r="D110" s="36" t="s">
-        <v>71</v>
-      </c>
+      <c r="D110" s="35"/>
       <c r="E110" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F110" s="38">
-        <v>5</v>
+        <v>62</v>
+      </c>
+      <c r="F110" s="37">
+        <v>3</v>
       </c>
       <c r="G110" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H110" s="26"/>
+        <v>119</v>
+      </c>
+      <c r="H110" s="25"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C111" s="25">
         <v>1</v>
       </c>
-      <c r="D111" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="D111" s="35"/>
       <c r="E111" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F111" s="38">
-        <v>88</v>
+      <c r="F111" s="37">
+        <v>3</v>
       </c>
       <c r="G111" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H111" s="26"/>
+        <v>119</v>
+      </c>
+      <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C112" s="25">
         <v>1</v>
       </c>
-      <c r="D112" s="36" t="s">
-        <v>83</v>
-      </c>
+      <c r="D112" s="35"/>
       <c r="E112" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F112" s="38">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="F112" s="37">
+        <v>15</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="H112" s="26"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C113" s="25">
         <v>1</v>
       </c>
-      <c r="D113" s="36" t="s">
-        <v>75</v>
-      </c>
+      <c r="D113" s="35"/>
       <c r="E113" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F113" s="38">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="F113" s="37">
+        <v>3</v>
       </c>
       <c r="G113" s="26" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="H113" s="26"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C114" s="25">
         <v>1</v>
       </c>
-      <c r="D114" s="36" t="s">
-        <v>115</v>
-      </c>
+      <c r="D114" s="35"/>
       <c r="E114" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F114" s="38">
-        <v>5</v>
+        <v>62</v>
+      </c>
+      <c r="F114" s="37">
+        <v>13</v>
       </c>
       <c r="G114" s="26" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="H114" s="26"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C115" s="25">
         <v>1</v>
       </c>
-      <c r="D115" s="36" t="s">
-        <v>74</v>
-      </c>
+      <c r="D115" s="35"/>
       <c r="E115" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F115" s="38">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="F115" s="37">
+        <v>5</v>
       </c>
       <c r="G115" s="26" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="H115" s="26"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C116" s="25">
         <v>1</v>
       </c>
-      <c r="D116" s="36"/>
+      <c r="D116" s="35"/>
       <c r="E116" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F116" s="38">
+        <v>62</v>
+      </c>
+      <c r="F116" s="37">
         <v>5</v>
       </c>
-      <c r="G116" s="26"/>
+      <c r="G116" s="26" t="s">
+        <v>119</v>
+      </c>
       <c r="H116" s="26">
         <v>132</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IN116">
+    <sortCondition ref="G2:G116"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape"/>
   <headerFooter>
@@ -5820,33 +5840,33 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="54"/>
       <c r="G1" s="54"/>
       <c r="H1" s="55"/>
       <c r="I1" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="57"/>
       <c r="K1" s="58"/>
       <c r="L1" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1" s="57"/>
       <c r="N1" s="58"/>
       <c r="O1" s="56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P1" s="57"/>
       <c r="Q1" s="58"/>
       <c r="R1" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S1" s="57"/>
       <c r="T1" s="58"/>
       <c r="U1" s="56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V1" s="57"/>
       <c r="W1" s="58"/>
@@ -5854,100 +5874,100 @@
     </row>
     <row r="2" spans="1:25" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>8</v>
+      <c r="A3" s="45" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="13">
@@ -5974,7 +5994,7 @@
       <c r="R3" s="15">
         <v>19</v>
       </c>
-      <c r="S3" s="51">
+      <c r="S3" s="50">
         <f>R3*27.2</f>
         <v>516.79999999999995</v>
       </c>
@@ -5990,33 +6010,33 @@
       </c>
       <c r="W3" s="14"/>
       <c r="X3" s="15"/>
-      <c r="Y3" s="52">
+      <c r="Y3" s="51">
         <f>SUM(J3,M3,P3,S3,V3)</f>
         <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>8</v>
+      <c r="A4" s="46" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>114</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="3">
@@ -6039,7 +6059,7 @@
       <c r="R4" s="4">
         <v>8</v>
       </c>
-      <c r="S4" s="51">
+      <c r="S4" s="50">
         <f t="shared" ref="S4:S5" si="4">R4*27.2</f>
         <v>217.6</v>
       </c>
@@ -6053,33 +6073,33 @@
       </c>
       <c r="W4" s="17"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="52">
+      <c r="Y4" s="51">
         <f t="shared" ref="Y4:Y5" si="5">SUM(J4,M4,P4,S4,V4)</f>
         <v>217.6</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
-        <v>8</v>
+      <c r="A5" s="46" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>114</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="3">
@@ -6102,7 +6122,7 @@
       <c r="R5" s="4">
         <v>4</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="50">
         <f t="shared" si="4"/>
         <v>108.8</v>
       </c>
@@ -6116,13 +6136,13 @@
       </c>
       <c r="W5" s="17"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="52">
+      <c r="Y5" s="51">
         <f t="shared" si="5"/>
         <v>108.8</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y6" s="50">
+      <c r="Y6" s="49">
         <f>SUM(Y3:Y5)</f>
         <v>870.4</v>
       </c>
@@ -6168,52 +6188,52 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>4</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>95</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>97</v>
       </c>
       <c r="G2" s="23">
         <f>((10+18+14+6)/368)*100</f>
@@ -6223,27 +6243,27 @@
         <f>((1+9+3+2)/368)*100</f>
         <v>4.0760869565217392</v>
       </c>
-      <c r="I2" s="43" t="s">
-        <v>6</v>
+      <c r="I2" s="42" t="s">
+        <v>5</v>
       </c>
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="48" t="s">
         <v>96</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>98</v>
       </c>
       <c r="G3" s="24">
         <f>((4+3+1+1+2+2+2+2+1+1)/368)*100</f>
@@ -6253,54 +6273,54 @@
         <f>((1+1+2)/368)*100</f>
         <v>1.0869565217391304</v>
       </c>
-      <c r="I3" s="44" t="s">
-        <v>6</v>
+      <c r="I3" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>99</v>
+        <v>45</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>97</v>
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="24">
         <f>((2+3+4+4+10+1)/368)*100</f>
         <v>6.5217391304347823</v>
       </c>
-      <c r="I4" s="44" t="s">
-        <v>88</v>
+      <c r="I4" s="43" t="s">
+        <v>87</v>
       </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>100</v>
+        <v>46</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="G5" s="24">
         <f>((20+10+9+8+5+11)/368)*100</f>
@@ -6310,62 +6330,62 @@
         <f>((9+1+6)/368)*100</f>
         <v>4.3478260869565215</v>
       </c>
-      <c r="I5" s="44" t="s">
-        <v>6</v>
+      <c r="I5" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>101</v>
+        <v>47</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>99</v>
       </c>
       <c r="G6" s="24"/>
-      <c r="H6" s="45">
+      <c r="H6" s="44">
         <f>(5/368)*100</f>
         <v>1.3586956521739131</v>
       </c>
-      <c r="I6" s="44" t="s">
-        <v>6</v>
+      <c r="I6" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>100</v>
       </c>
       <c r="G7" s="24"/>
       <c r="H7" s="24">
         <f>(2/368)*100</f>
         <v>0.54347826086956519</v>
       </c>
-      <c r="I7" s="44" t="s">
-        <v>6</v>
+      <c r="I7" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -6378,7 +6398,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="44"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6390,7 +6410,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="44"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6402,7 +6422,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="44"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6414,7 +6434,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="44"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="4"/>
     </row>
   </sheetData>
@@ -6446,39 +6466,39 @@
       <c r="B1" s="28"/>
       <c r="C1" s="29"/>
       <c r="D1" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="60"/>
       <c r="F1" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="60"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>35</v>
-      </c>
       <c r="D2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>52</v>
-      </c>
       <c r="F2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>52</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
